--- a/KS3/Year-8.xlsx
+++ b/KS3/Year-8.xlsx
@@ -616,7 +616,183 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCCCCC"/>
+          <bgColor rgb="FFCCCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFEFEF"/>
+          <bgColor rgb="FFEFEFEF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -865,8 +1041,8 @@
   </sheetPr>
   <dimension ref="A1:M209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G23" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="60" customHeight="1"/>
@@ -942,7 +1118,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>18</v>
@@ -983,7 +1159,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>18</v>
@@ -1024,7 +1200,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>18</v>
@@ -1065,7 +1241,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>18</v>
@@ -1106,7 +1282,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>18</v>
@@ -1147,7 +1323,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>18</v>
@@ -1188,7 +1364,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>18</v>
@@ -1229,7 +1405,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>18</v>
@@ -1270,7 +1446,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>18</v>
@@ -1311,7 +1487,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>18</v>
@@ -1352,7 +1528,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>18</v>
@@ -1393,7 +1569,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>18</v>
@@ -1434,7 +1610,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>18</v>
@@ -1475,7 +1651,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>18</v>
@@ -1516,7 +1692,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>18</v>
@@ -1557,7 +1733,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>18</v>
@@ -1598,7 +1774,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>18</v>
@@ -1639,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>18</v>
@@ -1680,7 +1856,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>18</v>
@@ -1721,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>18</v>
@@ -1762,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>18</v>
@@ -1803,7 +1979,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>18</v>
@@ -1844,7 +2020,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>18</v>
@@ -1885,7 +2061,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>18</v>
@@ -4125,23 +4301,23 @@
     <filterColumn colId="6"/>
     <filterColumn colId="7"/>
   </autoFilter>
-  <conditionalFormatting sqref="B23:C23 A8:I8">
-    <cfRule type="expression" dxfId="3" priority="7">
+  <conditionalFormatting sqref="B23:C23 A8:I8 B24:B26">
+    <cfRule type="expression" dxfId="25" priority="7">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:C23 A8:I8">
-    <cfRule type="expression" dxfId="2" priority="8">
+  <conditionalFormatting sqref="B23:C23 A8:I8 B24:B26">
+    <cfRule type="expression" dxfId="24" priority="8">
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:J209">
-    <cfRule type="expression" dxfId="1" priority="18">
+    <cfRule type="expression" dxfId="23" priority="18">
       <formula>$J3=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:J209">
-    <cfRule type="expression" dxfId="0" priority="20">
+    <cfRule type="expression" dxfId="22" priority="20">
       <formula>$J3=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/KS3/Year-8.xlsx
+++ b/KS3/Year-8.xlsx
@@ -616,183 +616,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFCCCCCC"/>
-          <bgColor rgb="FFCCCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEFEFEF"/>
-          <bgColor rgb="FFEFEFEF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1041,7 +865,7 @@
   </sheetPr>
   <dimension ref="A1:M209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -4302,22 +4126,22 @@
     <filterColumn colId="7"/>
   </autoFilter>
   <conditionalFormatting sqref="B23:C23 A8:I8 B24:B26">
-    <cfRule type="expression" dxfId="25" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:C23 A8:I8 B24:B26">
-    <cfRule type="expression" dxfId="24" priority="8">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>#REF!=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:J209">
-    <cfRule type="expression" dxfId="23" priority="18">
+    <cfRule type="expression" dxfId="1" priority="18">
       <formula>$J3=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:J209">
-    <cfRule type="expression" dxfId="22" priority="20">
+    <cfRule type="expression" dxfId="0" priority="20">
       <formula>$J3=0</formula>
     </cfRule>
   </conditionalFormatting>
